--- a/app/reports1.xlsx
+++ b/app/reports1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,29 +434,14 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>19_06_21</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>20_06_21</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>22_06_21</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>23_06_21</t>
+          <t>09_07_21</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>51714</t>
+          <t>51713</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,8 +449,17 @@
           <t>bisma</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>51712</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bushra</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/app/reports1.xlsx
+++ b/app/reports1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/app/reports1.xlsx
+++ b/app/reports1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,38 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>09_07_21</t>
+          <t>13_07_21</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>51713</t>
+          <t>51742</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bisma</t>
-        </is>
+          <t>bushra</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>51712</t>
+          <t>51744</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bushra</t>
-        </is>
+          <t>bisma</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports1.xlsx
+++ b/app/reports1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>13_07_21</t>
+          <t>14_07_21</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>24_07_21</t>
         </is>
       </c>
     </row>
@@ -449,8 +454,8 @@
           <t>bushra</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +469,7 @@
           <t>bisma</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
